--- a/build/com/qtpselenium/xls/A suite.xlsx
+++ b/build/com/qtpselenium/xls/A suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="18945" windowHeight="4365" tabRatio="733"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18945" windowHeight="4365" tabRatio="733" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="131">
   <si>
     <t>TCID</t>
   </si>
@@ -412,12 +412,16 @@
   </si>
   <si>
     <t>Add alerts to patient</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -786,16 +790,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +826,9 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -834,7 +840,9 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -846,7 +854,9 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -858,7 +868,9 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -870,7 +882,9 @@
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -882,7 +896,9 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -894,7 +910,9 @@
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -906,7 +924,9 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -917,18 +937,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,15 +1034,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -1090,15 +1110,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="16" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1213,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="S2" s="2"/>
     </row>
@@ -1270,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="S3" s="2"/>
     </row>
@@ -1384,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -1410,15 +1430,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1514,17 +1534,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="9" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="9" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1625,13 +1645,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1737,14 +1757,14 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1825,13 +1845,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
